--- a/data/trans_orig/P1804-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB70A75-73C9-408C-87DB-0659C08577F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64809E0E-135F-4A39-99FE-1F4C56BB6CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73620946-6867-4E94-9B97-128D47E33F9C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4EBA69F0-07E8-4BD2-BA70-98777E997225}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="325">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>7,34%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>92,66%</t>
   </si>
   <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>85,76%</t>
   </si>
   <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,19 +138,19 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>5,53%</t>
@@ -159,31 +159,31 @@
     <t>4,13%</t>
   </si>
   <si>
-    <t>7,14%</t>
+    <t>6,96%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>92,86%</t>
+    <t>93,04%</t>
   </si>
   <si>
     <t>95,87%</t>
@@ -195,835 +195,823 @@
     <t>2,27%</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>3,89%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>10,69%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>96,11%</t>
   </si>
   <si>
     <t>91,75%</t>
   </si>
   <si>
-    <t>89,31%</t>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>93,01%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC01646-525A-4F0A-8C95-361D233205C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDB5DE7-D964-4991-86E1-2DD7D1E3D5D7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2212,10 +2200,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2218,13 @@
         <v>204635</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>213</v>
@@ -2245,13 +2233,13 @@
         <v>207690</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>418</v>
@@ -2260,13 +2248,13 @@
         <v>412325</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,7 +2310,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2334,13 +2322,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -2349,13 +2337,13 @@
         <v>7149</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2364,13 +2352,13 @@
         <v>7149</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,10 +2373,10 @@
         <v>263123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -2400,13 +2388,13 @@
         <v>265966</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -2415,13 +2403,13 @@
         <v>529089</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,7 +2465,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2489,13 +2477,13 @@
         <v>31518</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -2504,13 +2492,13 @@
         <v>48871</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -2519,13 +2507,13 @@
         <v>80389</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2528,13 @@
         <v>625040</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>602</v>
@@ -2555,13 +2543,13 @@
         <v>642423</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1153</v>
@@ -2570,13 +2558,13 @@
         <v>1267463</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,7 +2620,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2644,13 +2632,13 @@
         <v>45102</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -2659,13 +2647,13 @@
         <v>81661</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>114</v>
@@ -2674,13 +2662,13 @@
         <v>126762</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2683,13 @@
         <v>733481</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>685</v>
@@ -2710,13 +2698,13 @@
         <v>744506</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>1391</v>
@@ -2725,13 +2713,13 @@
         <v>1477988</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2787,13 @@
         <v>213690</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H28" s="7">
         <v>317</v>
@@ -2814,13 +2802,13 @@
         <v>351909</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>524</v>
@@ -2829,13 +2817,13 @@
         <v>565599</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2838,13 @@
         <v>3180660</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>3021</v>
@@ -2865,13 +2853,13 @@
         <v>3192633</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>6045</v>
@@ -2880,13 +2868,13 @@
         <v>6373293</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,7 +2930,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +2954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAA9879-4D5A-4269-9AEF-A717BBDDB0D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D48AE7-AEBA-4C2F-9A29-EE248463795F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2983,7 +2971,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3090,13 +3078,13 @@
         <v>4162</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3105,13 +3093,13 @@
         <v>10016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3120,13 +3108,13 @@
         <v>14178</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3129,13 @@
         <v>256136</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="H5" s="7">
         <v>514</v>
@@ -3156,13 +3144,13 @@
         <v>261387</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="M5" s="7">
         <v>840</v>
@@ -3171,13 +3159,13 @@
         <v>517522</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3233,13 @@
         <v>1845</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3260,13 +3248,13 @@
         <v>9879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3275,13 +3263,13 @@
         <v>11723</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3284,13 @@
         <v>517452</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>705</v>
@@ -3311,13 +3299,13 @@
         <v>543337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>1086</v>
@@ -3326,13 +3314,13 @@
         <v>1060791</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3388,13 @@
         <v>12243</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -3415,13 +3403,13 @@
         <v>29190</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -3430,13 +3418,13 @@
         <v>41433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3439,13 @@
         <v>309997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
@@ -3466,13 +3454,13 @@
         <v>343550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>838</v>
@@ -3481,13 +3469,13 @@
         <v>653547</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3543,13 @@
         <v>111641</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -3570,13 +3558,13 @@
         <v>135785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>313</v>
@@ -3585,13 +3573,13 @@
         <v>247426</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3594,13 @@
         <v>210599</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>395</v>
@@ -3621,13 +3609,13 @@
         <v>292771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>578</v>
@@ -3636,13 +3624,13 @@
         <v>503370</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3698,13 @@
         <v>2113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3725,13 +3713,13 @@
         <v>4046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3740,13 +3728,13 @@
         <v>6159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3749,13 @@
         <v>194635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>483</v>
@@ -3776,13 +3764,13 @@
         <v>227857</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>759</v>
@@ -3791,13 +3779,13 @@
         <v>422492</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,7 +3841,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3868,10 +3856,10 @@
         <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -3880,13 +3868,13 @@
         <v>24955</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -3895,13 +3883,13 @@
         <v>42910</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>149</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,10 +3907,10 @@
         <v>44</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>419</v>
@@ -3931,13 +3919,13 @@
         <v>250667</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>765</v>
@@ -3946,7 +3934,7 @@
         <v>509935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>275</v>
@@ -4008,7 +3996,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4026,7 +4014,7 @@
         <v>278</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -4035,10 +4023,10 @@
         <v>66107</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>281</v>
@@ -4074,10 +4062,10 @@
         <v>285</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H23" s="7">
         <v>873</v>
@@ -4086,13 +4074,13 @@
         <v>735075</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M23" s="7">
         <v>1437</v>
@@ -4163,7 +4151,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4175,13 +4163,13 @@
         <v>14590</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -4190,13 +4178,13 @@
         <v>22470</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -4205,13 +4193,13 @@
         <v>37060</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4214,13 @@
         <v>844838</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H26" s="7">
         <v>1036</v>
@@ -4241,13 +4229,13 @@
         <v>845964</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>121</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>1784</v>
@@ -4256,13 +4244,13 @@
         <v>1690802</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4318,13 @@
         <v>200249</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>439</v>
@@ -4345,13 +4333,13 @@
         <v>302449</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>647</v>
@@ -4360,13 +4348,13 @@
         <v>502698</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4369,13 @@
         <v>3184979</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>4919</v>
@@ -4396,13 +4384,13 @@
         <v>3500608</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>8087</v>
@@ -4411,13 +4399,13 @@
         <v>6685587</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +4461,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1804-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64809E0E-135F-4A39-99FE-1F4C56BB6CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1DD60B0-E3AC-4E61-89A7-0821C594A1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4EBA69F0-07E8-4BD2-BA70-98777E997225}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C70E41ED-F382-4973-8A55-C16E08ACF56B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="325">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="321">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>7,34%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>92,66%</t>
   </si>
   <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>85,76%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -195,754 +195,742 @@
     <t>2,27%</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
   </si>
   <si>
     <t>96,19%</t>
@@ -1423,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDB5DE7-D964-4991-86E1-2DD7D1E3D5D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE8C504-12D8-406B-97E9-52DD6A78C0C8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2200,10 +2188,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,13 +2206,13 @@
         <v>204635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>213</v>
@@ -2233,13 +2221,13 @@
         <v>207690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>418</v>
@@ -2248,13 +2236,13 @@
         <v>412325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,7 +2298,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2322,13 +2310,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -2337,13 +2325,13 @@
         <v>7149</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2352,7 +2340,7 @@
         <v>7149</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>113</v>
@@ -2388,13 +2376,13 @@
         <v>265966</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -2403,13 +2391,13 @@
         <v>529089</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,7 +2453,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2477,13 +2465,13 @@
         <v>31518</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -2492,13 +2480,13 @@
         <v>48871</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -2507,13 +2495,13 @@
         <v>80389</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2516,13 @@
         <v>625040</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>602</v>
@@ -2543,13 +2531,13 @@
         <v>642423</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>1153</v>
@@ -2558,13 +2546,13 @@
         <v>1267463</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2608,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2632,13 +2620,13 @@
         <v>45102</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -2647,13 +2635,13 @@
         <v>81661</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>114</v>
@@ -2662,13 +2650,13 @@
         <v>126762</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2671,13 @@
         <v>733481</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="H26" s="7">
         <v>685</v>
@@ -2698,13 +2686,13 @@
         <v>744506</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>1391</v>
@@ -2713,13 +2701,13 @@
         <v>1477988</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2775,13 @@
         <v>213690</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>317</v>
@@ -2802,13 +2790,13 @@
         <v>351909</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>524</v>
@@ -2817,13 +2805,13 @@
         <v>565599</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2826,13 @@
         <v>3180660</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>3021</v>
@@ -2853,13 +2841,13 @@
         <v>3192633</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>6045</v>
@@ -2868,13 +2856,13 @@
         <v>6373293</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,7 +2918,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2954,7 +2942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D48AE7-AEBA-4C2F-9A29-EE248463795F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8E73E-0462-4078-8F64-7890DFA12CE4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2971,7 +2959,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3078,13 +3066,13 @@
         <v>4162</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3093,13 +3081,13 @@
         <v>10016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3108,13 +3096,13 @@
         <v>14178</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3117,13 @@
         <v>256136</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>514</v>
@@ -3144,13 +3132,13 @@
         <v>261387</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>840</v>
@@ -3159,13 +3147,13 @@
         <v>517522</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3221,13 @@
         <v>1845</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3248,13 +3236,13 @@
         <v>9879</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3263,13 +3251,13 @@
         <v>11723</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,10 +3272,10 @@
         <v>517452</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>115</v>
@@ -3299,13 +3287,13 @@
         <v>543337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>1086</v>
@@ -3314,13 +3302,13 @@
         <v>1060791</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3376,13 @@
         <v>12243</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -3403,13 +3391,13 @@
         <v>29190</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -3418,13 +3406,13 @@
         <v>41433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3427,13 @@
         <v>309997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
@@ -3454,13 +3442,13 @@
         <v>343550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>838</v>
@@ -3469,13 +3457,13 @@
         <v>653547</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3531,13 @@
         <v>111641</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -3558,13 +3546,13 @@
         <v>135785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>313</v>
@@ -3573,13 +3561,13 @@
         <v>247426</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3582,13 @@
         <v>210599</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>395</v>
@@ -3609,13 +3597,13 @@
         <v>292771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>578</v>
@@ -3624,13 +3612,13 @@
         <v>503370</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3686,13 @@
         <v>2113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3713,13 +3701,13 @@
         <v>4046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3728,13 +3716,13 @@
         <v>6159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3737,13 @@
         <v>194635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>483</v>
@@ -3764,13 +3752,13 @@
         <v>227857</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>759</v>
@@ -3779,13 +3767,13 @@
         <v>422492</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3829,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3856,10 +3844,10 @@
         <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -3868,13 +3856,13 @@
         <v>24955</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -3883,13 +3871,13 @@
         <v>42910</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,10 +3895,10 @@
         <v>44</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>419</v>
@@ -3919,13 +3907,13 @@
         <v>250667</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>765</v>
@@ -3934,13 +3922,13 @@
         <v>509935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +3984,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4008,13 +3996,13 @@
         <v>35701</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -4023,13 +4011,13 @@
         <v>66107</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>119</v>
@@ -4038,13 +4026,13 @@
         <v>101808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4047,13 @@
         <v>592053</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>873</v>
@@ -4074,13 +4062,13 @@
         <v>735075</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>1437</v>
@@ -4089,13 +4077,13 @@
         <v>1327128</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,7 +4139,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4163,13 +4151,13 @@
         <v>14590</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -4178,13 +4166,13 @@
         <v>22470</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -4193,13 +4181,13 @@
         <v>37060</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4202,13 @@
         <v>844838</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>1036</v>
@@ -4229,13 +4217,13 @@
         <v>845964</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>1784</v>
@@ -4244,13 +4232,13 @@
         <v>1690802</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4306,13 @@
         <v>200249</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>439</v>
@@ -4333,13 +4321,13 @@
         <v>302449</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>647</v>
@@ -4348,13 +4336,13 @@
         <v>502698</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4357,13 @@
         <v>3184979</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>4919</v>
@@ -4384,13 +4372,13 @@
         <v>3500608</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>8087</v>
@@ -4399,13 +4387,13 @@
         <v>6685587</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4449,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1804-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{543B3E1F-76C2-4371-AB3B-EA282A06F79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A530A00A-4A8F-4A07-9575-6030CFB25B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{940BED94-D04A-44A9-8A7D-FA7F879F68D3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AF571EA6-E556-414C-B641-D4665CCBC164}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="412">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -257,7 +257,16 @@
     <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -272,39 +281,51 @@
     <t>0,6%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>99,85%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
@@ -617,9 +638,6 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
     <t>2,67%</t>
   </si>
   <si>
@@ -641,9 +659,6 @@
     <t>97,33%</t>
   </si>
   <si>
-    <t>99,48%</t>
-  </si>
-  <si>
     <t>0,33%</t>
   </si>
   <si>
@@ -815,82 +830,85 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>98,91%</t>
@@ -899,313 +917,322 @@
     <t>97,9%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>3,8%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>97,7%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -1214,58 +1241,40 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC91FEB-789C-42DE-BAC9-1B80B56E2DDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28245FF-5A8B-4306-AC74-0E4D80DBECD7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3446,7 +3455,7 @@
         <v>3214</v>
       </c>
       <c r="D36" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>11</v>
@@ -3461,7 +3470,7 @@
         <v>3297</v>
       </c>
       <c r="I36" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>11</v>
@@ -3476,7 +3485,7 @@
         <v>6511</v>
       </c>
       <c r="N36" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>11</v>
@@ -3599,7 +3608,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -3614,7 +3623,7 @@
         <v>3297</v>
       </c>
       <c r="I39" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -3629,7 +3638,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
@@ -3667,7 +3676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C903DC-6069-451B-B6E4-FF0734EF9F7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FDD49E-421A-4028-9D2F-9FA9AF203571}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3785,43 +3794,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D4" s="7">
+        <v>294738</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I4" s="7">
+        <v>287245</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N4" s="7">
+        <v>581983</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,41 +3847,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,41 +3898,47 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,43 +3947,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>581983</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,7 +4024,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -4045,7 +4078,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4096,7 +4129,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4182,7 +4215,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -4197,7 +4230,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -4236,7 +4269,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4251,7 +4284,7 @@
         <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4287,7 +4320,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4302,7 +4335,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4379,46 +4412,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D16" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I16" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N16" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4442,7 +4475,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4457,7 +4490,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4472,7 +4505,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,7 +4526,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4508,7 +4541,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4523,7 +4556,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,10 +4565,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4547,10 +4580,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4562,10 +4595,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -4594,7 +4627,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -4609,7 +4642,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -4648,7 +4681,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4663,7 +4696,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4699,7 +4732,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4714,7 +4747,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4800,7 +4833,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -4854,7 +4887,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4905,7 +4938,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5036,7 +5069,7 @@
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5090,7 +5123,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5174,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,7 +5245,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -5227,7 +5260,7 @@
         <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -5266,7 +5299,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5281,7 +5314,7 @@
         <v>18</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -5317,7 +5350,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5332,7 +5365,7 @@
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5633,7 +5666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6032912-2DD7-4B02-B7AA-6D36C2727195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AA71A6-495E-4BE5-9BDD-ECEBD404DD59}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5650,7 +5683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5778,7 +5811,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5793,7 +5826,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5841,13 @@
         <v>21554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>38</v>
@@ -5823,13 +5856,13 @@
         <v>41115</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>58</v>
@@ -5838,13 +5871,13 @@
         <v>62670</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5892,13 @@
         <v>272207</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H6" s="7">
         <v>239</v>
@@ -5874,13 +5907,13 @@
         <v>247588</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M6" s="7">
         <v>485</v>
@@ -5889,13 +5922,13 @@
         <v>519794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,7 +6002,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5984,7 +6017,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6014,13 +6047,13 @@
         <v>22776</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -6029,13 +6062,13 @@
         <v>33893</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M9" s="7">
         <v>53</v>
@@ -6044,13 +6077,13 @@
         <v>56669</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6098,13 @@
         <v>479799</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>452</v>
@@ -6080,13 +6113,13 @@
         <v>489191</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>906</v>
@@ -6095,13 +6128,13 @@
         <v>968990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6223,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6205,7 +6238,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6253,13 @@
         <v>7228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -6235,13 +6268,13 @@
         <v>14490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -6250,13 +6283,13 @@
         <v>21718</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6304,13 @@
         <v>311337</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>318</v>
@@ -6286,13 +6319,13 @@
         <v>321819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>645</v>
@@ -6301,13 +6334,13 @@
         <v>633156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,7 +6414,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6411,7 +6444,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6459,13 @@
         <v>78926</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -6441,13 +6474,13 @@
         <v>113833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>180</v>
@@ -6456,13 +6489,13 @@
         <v>192759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6510,13 @@
         <v>291038</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H18" s="7">
         <v>256</v>
@@ -6492,13 +6525,13 @@
         <v>273450</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
         <v>532</v>
@@ -6507,13 +6540,13 @@
         <v>564488</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,7 +6620,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6602,7 +6635,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6617,7 +6650,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,13 +6665,13 @@
         <v>6586</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -6647,13 +6680,13 @@
         <v>10897</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -6662,13 +6695,13 @@
         <v>17483</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6716,13 @@
         <v>204635</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H22" s="7">
         <v>213</v>
@@ -6698,13 +6731,13 @@
         <v>207690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M22" s="7">
         <v>418</v>
@@ -6713,13 +6746,13 @@
         <v>412325</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,7 +6826,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6808,7 +6841,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6844,7 +6877,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -6853,13 +6886,13 @@
         <v>7149</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6868,13 +6901,13 @@
         <v>7149</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,7 +6925,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>13</v>
@@ -6904,13 +6937,13 @@
         <v>265966</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -6919,13 +6952,13 @@
         <v>529089</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,7 +7032,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7044,13 +7077,13 @@
         <v>31518</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -7059,13 +7092,13 @@
         <v>48871</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -7074,13 +7107,13 @@
         <v>80389</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7128,13 @@
         <v>625040</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>602</v>
@@ -7110,13 +7143,13 @@
         <v>642423</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>1153</v>
@@ -7125,13 +7158,13 @@
         <v>1267463</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,7 +7253,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7250,13 +7283,13 @@
         <v>45102</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H33" s="7">
         <v>70</v>
@@ -7265,13 +7298,13 @@
         <v>81661</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M33" s="7">
         <v>114</v>
@@ -7280,13 +7313,13 @@
         <v>126762</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7334,13 @@
         <v>733481</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>685</v>
@@ -7316,13 +7349,13 @@
         <v>744506</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>1391</v>
@@ -7331,13 +7364,13 @@
         <v>1477988</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7489,13 @@
         <v>213690</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>317</v>
@@ -7471,13 +7504,13 @@
         <v>351909</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>524</v>
@@ -7486,13 +7519,13 @@
         <v>565599</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7540,13 @@
         <v>3180660</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>3021</v>
@@ -7522,13 +7555,13 @@
         <v>3192633</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M38" s="7">
         <v>6045</v>
@@ -7537,13 +7570,13 @@
         <v>6373293</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,7 +7656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FA2DEC-9777-400B-8D5D-DA10FC98D0E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9C064A-C0EC-4C5D-A33A-96E62AB29764}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7640,7 +7673,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7753,7 +7786,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7783,7 +7816,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,46 +7828,46 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>4162</v>
+        <v>4732</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>10016</v>
+        <v>10483</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>14178</v>
+        <v>15214</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,46 +7879,46 @@
         <v>326</v>
       </c>
       <c r="D6" s="7">
-        <v>256136</v>
+        <v>306711</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="H6" s="7">
         <v>514</v>
       </c>
       <c r="I6" s="7">
-        <v>261387</v>
+        <v>279152</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M6" s="7">
         <v>840</v>
       </c>
       <c r="N6" s="7">
-        <v>517522</v>
+        <v>585863</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,7 +7930,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -7912,7 +7945,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -7927,7 +7960,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -7974,7 +8007,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7989,7 +8022,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,46 +8034,46 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1845</v>
+        <v>1976</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>9879</v>
+        <v>9270</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
       </c>
       <c r="N9" s="7">
-        <v>11723</v>
+        <v>11246</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8052,13 +8085,13 @@
         <v>381</v>
       </c>
       <c r="D10" s="7">
-        <v>517452</v>
+        <v>516414</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -8067,31 +8100,31 @@
         <v>705</v>
       </c>
       <c r="I10" s="7">
-        <v>543337</v>
+        <v>504455</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>1086</v>
       </c>
       <c r="N10" s="7">
-        <v>1060791</v>
+        <v>1020869</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,7 +8136,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -8118,7 +8151,7 @@
         <v>715</v>
       </c>
       <c r="I11" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -8133,7 +8166,7 @@
         <v>1097</v>
       </c>
       <c r="N11" s="7">
-        <v>1072514</v>
+        <v>1032115</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -8195,7 +8228,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8207,46 +8240,46 @@
         <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>12243</v>
+        <v>11785</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>29190</v>
+        <v>27342</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>41433</v>
+        <v>39126</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,46 +8291,46 @@
         <v>344</v>
       </c>
       <c r="D14" s="7">
-        <v>309997</v>
+        <v>304265</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>494</v>
       </c>
       <c r="I14" s="7">
-        <v>343550</v>
+        <v>321283</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>838</v>
       </c>
       <c r="N14" s="7">
-        <v>653547</v>
+        <v>625549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,7 +8342,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -8324,7 +8357,7 @@
         <v>535</v>
       </c>
       <c r="I15" s="7">
-        <v>372740</v>
+        <v>348625</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -8339,7 +8372,7 @@
         <v>895</v>
       </c>
       <c r="N15" s="7">
-        <v>694980</v>
+        <v>664675</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -8371,7 +8404,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8401,7 +8434,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,46 +8446,46 @@
         <v>109</v>
       </c>
       <c r="D17" s="7">
-        <v>111641</v>
+        <v>106275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
       </c>
       <c r="I17" s="7">
-        <v>135785</v>
+        <v>124638</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>313</v>
       </c>
       <c r="N17" s="7">
-        <v>247426</v>
+        <v>230912</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8464,46 +8497,46 @@
         <v>183</v>
       </c>
       <c r="D18" s="7">
-        <v>210599</v>
+        <v>206282</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H18" s="7">
         <v>395</v>
       </c>
       <c r="I18" s="7">
-        <v>292771</v>
+        <v>351080</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M18" s="7">
         <v>578</v>
       </c>
       <c r="N18" s="7">
-        <v>503370</v>
+        <v>557362</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8515,7 +8548,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -8530,7 +8563,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -8545,7 +8578,7 @@
         <v>891</v>
       </c>
       <c r="N19" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -8577,7 +8610,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8592,7 +8625,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8607,7 +8640,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8619,46 +8652,46 @@
         <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>2113</v>
+        <v>1927</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
       </c>
       <c r="I21" s="7">
-        <v>4046</v>
+        <v>3675</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
       </c>
       <c r="N21" s="7">
-        <v>6159</v>
+        <v>5602</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>329</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8670,46 +8703,46 @@
         <v>276</v>
       </c>
       <c r="D22" s="7">
-        <v>194635</v>
+        <v>176815</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>337</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>57</v>
+        <v>339</v>
       </c>
       <c r="H22" s="7">
         <v>483</v>
       </c>
       <c r="I22" s="7">
-        <v>227857</v>
+        <v>204981</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>759</v>
       </c>
       <c r="N22" s="7">
-        <v>422492</v>
+        <v>381796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8721,7 +8754,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -8736,7 +8769,7 @@
         <v>492</v>
       </c>
       <c r="I23" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -8751,7 +8784,7 @@
         <v>771</v>
       </c>
       <c r="N23" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -8783,7 +8816,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8798,7 +8831,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8813,7 +8846,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8825,46 +8858,46 @@
         <v>25</v>
       </c>
       <c r="D25" s="7">
-        <v>17955</v>
+        <v>16953</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
       </c>
       <c r="I25" s="7">
-        <v>24955</v>
+        <v>22942</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
       </c>
       <c r="N25" s="7">
-        <v>42910</v>
+        <v>39894</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>224</v>
+        <v>352</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8876,46 +8909,46 @@
         <v>346</v>
       </c>
       <c r="D26" s="7">
-        <v>259268</v>
+        <v>252683</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="H26" s="7">
         <v>419</v>
       </c>
       <c r="I26" s="7">
-        <v>250667</v>
+        <v>234114</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="M26" s="7">
         <v>765</v>
       </c>
       <c r="N26" s="7">
-        <v>509935</v>
+        <v>486798</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8927,7 +8960,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -8942,7 +8975,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -8957,7 +8990,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -9019,7 +9052,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9031,46 +9064,46 @@
         <v>35</v>
       </c>
       <c r="D29" s="7">
-        <v>35701</v>
+        <v>34710</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>355</v>
+        <v>249</v>
       </c>
       <c r="H29" s="7">
         <v>84</v>
       </c>
       <c r="I29" s="7">
-        <v>66107</v>
+        <v>59750</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>138</v>
+        <v>368</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M29" s="7">
         <v>119</v>
       </c>
       <c r="N29" s="7">
-        <v>101808</v>
+        <v>94460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9082,46 +9115,46 @@
         <v>564</v>
       </c>
       <c r="D30" s="7">
-        <v>592053</v>
+        <v>589569</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="H30" s="7">
         <v>873</v>
       </c>
       <c r="I30" s="7">
-        <v>735075</v>
+        <v>786962</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>146</v>
+        <v>377</v>
       </c>
       <c r="M30" s="7">
         <v>1437</v>
       </c>
       <c r="N30" s="7">
-        <v>1327128</v>
+        <v>1376532</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9133,7 +9166,7 @@
         <v>599</v>
       </c>
       <c r="D31" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>13</v>
@@ -9148,7 +9181,7 @@
         <v>957</v>
       </c>
       <c r="I31" s="7">
-        <v>801182</v>
+        <v>846712</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>13</v>
@@ -9163,7 +9196,7 @@
         <v>1556</v>
       </c>
       <c r="N31" s="7">
-        <v>1428936</v>
+        <v>1470992</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>13</v>
@@ -9195,7 +9228,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9210,7 +9243,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9225,7 +9258,7 @@
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9237,46 +9270,46 @@
         <v>14</v>
       </c>
       <c r="D33" s="7">
-        <v>14590</v>
+        <v>12477</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
       </c>
       <c r="I33" s="7">
-        <v>22470</v>
+        <v>18631</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="M33" s="7">
         <v>40</v>
       </c>
       <c r="N33" s="7">
-        <v>37060</v>
+        <v>31108</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,46 +9321,46 @@
         <v>748</v>
       </c>
       <c r="D34" s="7">
-        <v>844838</v>
+        <v>916243</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="H34" s="7">
         <v>1036</v>
       </c>
       <c r="I34" s="7">
-        <v>845964</v>
+        <v>699100</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M34" s="7">
         <v>1784</v>
       </c>
       <c r="N34" s="7">
-        <v>1690802</v>
+        <v>1615344</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>388</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9339,7 +9372,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>13</v>
@@ -9354,7 +9387,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>13</v>
@@ -9369,7 +9402,7 @@
         <v>1824</v>
       </c>
       <c r="N35" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>13</v>
@@ -9416,7 +9449,7 @@
         <v>18</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9431,7 +9464,7 @@
         <v>18</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,46 +9476,46 @@
         <v>208</v>
       </c>
       <c r="D37" s="7">
-        <v>200249</v>
+        <v>190834</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>391</v>
+        <v>197</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="H37" s="7">
         <v>439</v>
       </c>
       <c r="I37" s="7">
-        <v>302449</v>
+        <v>276729</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="M37" s="7">
         <v>647</v>
       </c>
       <c r="N37" s="7">
-        <v>502698</v>
+        <v>467563</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>397</v>
+        <v>232</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,46 +9527,46 @@
         <v>3168</v>
       </c>
       <c r="D38" s="7">
-        <v>3184979</v>
+        <v>3268983</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>400</v>
+        <v>202</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H38" s="7">
         <v>4919</v>
       </c>
       <c r="I38" s="7">
-        <v>3500608</v>
+        <v>3381129</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M38" s="7">
         <v>8087</v>
       </c>
       <c r="N38" s="7">
-        <v>6685587</v>
+        <v>6650112</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>406</v>
+        <v>242</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9545,7 +9578,7 @@
         <v>3376</v>
       </c>
       <c r="D39" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -9560,7 +9593,7 @@
         <v>5358</v>
       </c>
       <c r="I39" s="7">
-        <v>3803057</v>
+        <v>3657858</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -9575,7 +9608,7 @@
         <v>8734</v>
       </c>
       <c r="N39" s="7">
-        <v>7188285</v>
+        <v>7117675</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
